--- a/Rawls_Supplementary_data4.xlsx
+++ b/Rawls_Supplementary_data4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdrawls/Documents/CSBL/Rawls_OmicsData_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdrawls/Documents/CSBL/Rawls_OmicsData_submission/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05F353-199E-4E4A-8102-863DC49F9E1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF6E1F-B8DB-764E-8A05-8585224F17CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25020" windowHeight="14580" activeTab="2" xr2:uid="{F17266AA-B8E9-954E-97F9-8B00771C9483}"/>
   </bookViews>
@@ -134,358 +134,358 @@
     <t>carbontetrachloride</t>
   </si>
   <si>
-    <t>RCR30008_f</t>
+    <t xml:space="preserve">rno </t>
   </si>
   <si>
-    <t>RCR30012_f</t>
+    <t>RCR30008</t>
   </si>
   <si>
-    <t>RCR30013_f</t>
+    <t>RCR30012</t>
   </si>
   <si>
-    <t>RCR30014_f</t>
+    <t>RCR30013</t>
   </si>
   <si>
-    <t>RCR30015_f</t>
+    <t>RCR30014</t>
   </si>
   <si>
-    <t>RCR30016_f</t>
+    <t>RCR30015</t>
   </si>
   <si>
-    <t>RCR30024_f</t>
+    <t>RCR30016</t>
   </si>
   <si>
-    <t>RCR30031_f</t>
+    <t>RCR30024</t>
   </si>
   <si>
-    <t>RCR30032_f</t>
+    <t>RCR30031</t>
   </si>
   <si>
-    <t>RCR30039_f</t>
+    <t>RCR30032</t>
   </si>
   <si>
-    <t>RCR30041_f</t>
+    <t>RCR30039</t>
   </si>
   <si>
-    <t>RCR30042_f</t>
+    <t>RCR30041</t>
   </si>
   <si>
-    <t>RCR30045_f</t>
+    <t>RCR30042</t>
   </si>
   <si>
-    <t>RCR30046_f</t>
+    <t>RCR30045</t>
   </si>
   <si>
-    <t>RCR30047_f</t>
+    <t>RCR30046</t>
   </si>
   <si>
-    <t>RCR30048_f</t>
+    <t>RCR30047</t>
   </si>
   <si>
-    <t>RCR30062_f</t>
+    <t>RCR30048</t>
   </si>
   <si>
-    <t>RCR30067_f</t>
+    <t>RCR30062</t>
   </si>
   <si>
-    <t>RCR30073_f</t>
+    <t>RCR30067</t>
   </si>
   <si>
-    <t>RCR30078_f</t>
+    <t>RCR30073</t>
   </si>
   <si>
-    <t>RCR30081_f</t>
+    <t>RCR30078</t>
   </si>
   <si>
-    <t>RCR30082_f</t>
+    <t>RCR30081</t>
   </si>
   <si>
-    <t>RCR30086_f</t>
+    <t>RCR30082</t>
   </si>
   <si>
-    <t>RCR30093_f</t>
+    <t>RCR30086</t>
   </si>
   <si>
-    <t>RCR30095_f</t>
+    <t>RCR30093</t>
   </si>
   <si>
-    <t>RCR30096_f</t>
+    <t>RCR30095</t>
   </si>
   <si>
-    <t>RCR30099_f</t>
+    <t>RCR30096</t>
   </si>
   <si>
-    <t>RCR30101_f</t>
+    <t>RCR30099</t>
   </si>
   <si>
-    <t>RCR30102_f</t>
+    <t>RCR30101</t>
   </si>
   <si>
-    <t>RCR30103_f</t>
+    <t>RCR30102</t>
   </si>
   <si>
-    <t>RCR30105_f</t>
+    <t>RCR30103</t>
   </si>
   <si>
-    <t>RCR30106_f</t>
+    <t>RCR30105</t>
   </si>
   <si>
-    <t>RCR30111_f</t>
+    <t>RCR30106</t>
   </si>
   <si>
-    <t>RCR30115_f</t>
+    <t>RCR30111</t>
   </si>
   <si>
-    <t>RCR30116_f</t>
+    <t>RCR30115</t>
   </si>
   <si>
-    <t>RCR30117_f</t>
+    <t>RCR30116</t>
   </si>
   <si>
-    <t>RCR30122_f</t>
+    <t>RCR30117</t>
   </si>
   <si>
-    <t>RCR30126_f</t>
+    <t>RCR30122</t>
   </si>
   <si>
-    <t>RCR30131_f</t>
+    <t>RCR30126</t>
   </si>
   <si>
-    <t>RCR30135_f</t>
+    <t>RCR30131</t>
   </si>
   <si>
-    <t>RCR30142_f</t>
+    <t>RCR30135</t>
   </si>
   <si>
-    <t>RCR30147_f</t>
+    <t>RCR30142</t>
   </si>
   <si>
-    <t>RCR30148_f</t>
+    <t>RCR30147</t>
   </si>
   <si>
-    <t>RCR30161_f</t>
+    <t>RCR30148</t>
   </si>
   <si>
-    <t>RCR30188_f</t>
+    <t>RCR30161</t>
   </si>
   <si>
-    <t>RCR30192_f</t>
+    <t>RCR30188</t>
   </si>
   <si>
-    <t>RCR30204_f</t>
+    <t>RCR30192</t>
   </si>
   <si>
-    <t>RCR30212_f</t>
+    <t>RCR30204</t>
   </si>
   <si>
-    <t>RCR30219_f</t>
+    <t>RCR30212</t>
   </si>
   <si>
-    <t>RCR30223_f</t>
+    <t>RCR30219</t>
   </si>
   <si>
-    <t>RCR30235_f</t>
+    <t>RCR30223</t>
   </si>
   <si>
-    <t>RCR30241_f</t>
+    <t>RCR30235</t>
   </si>
   <si>
-    <t>RCR30243_f</t>
+    <t>RCR30241</t>
   </si>
   <si>
-    <t>RCR30309_f</t>
+    <t>RCR30243</t>
   </si>
   <si>
-    <t>RCR30310_f</t>
+    <t>RCR30309</t>
   </si>
   <si>
-    <t>RCR30311_f</t>
+    <t>RCR30310</t>
   </si>
   <si>
-    <t>RCR30312_f</t>
+    <t>RCR30311</t>
   </si>
   <si>
-    <t>RCR30313_f</t>
+    <t>RCR30312</t>
   </si>
   <si>
-    <t>RCR30315_f</t>
+    <t>RCR30313</t>
   </si>
   <si>
-    <t>RCR30321_f</t>
+    <t>RCR30315</t>
   </si>
   <si>
-    <t>RCR30322_f</t>
+    <t>RCR30321</t>
   </si>
   <si>
-    <t>RCR30325_f</t>
+    <t>RCR30322</t>
   </si>
   <si>
-    <t>RCR30327_f</t>
+    <t>RCR30325</t>
   </si>
   <si>
-    <t>RCR30330_f</t>
+    <t>RCR30327</t>
   </si>
   <si>
-    <t>RCR30333_f</t>
+    <t>RCR30330</t>
   </si>
   <si>
-    <t>RCR30342_f</t>
+    <t>RCR30333</t>
   </si>
   <si>
-    <t>RCR30348_f</t>
+    <t>RCR30342</t>
   </si>
   <si>
-    <t>RCR30353_f</t>
+    <t>RCR30348</t>
   </si>
   <si>
-    <t>RCR30364_f</t>
+    <t>RCR30353</t>
   </si>
   <si>
-    <t>RCR30367_f</t>
+    <t>RCR30364</t>
   </si>
   <si>
-    <t>RCR30369_f</t>
+    <t>RCR30367</t>
   </si>
   <si>
-    <t>RCR30374_f</t>
+    <t>RCR30369</t>
   </si>
   <si>
-    <t>RCR30375_f</t>
+    <t>RCR30374</t>
   </si>
   <si>
-    <t>RCR30376_f</t>
+    <t>RCR30375</t>
   </si>
   <si>
-    <t>RCR30380_f</t>
+    <t>RCR30376</t>
   </si>
   <si>
-    <t>RCR30383_f</t>
+    <t>RCR30380</t>
   </si>
   <si>
-    <t>RCR30392_f</t>
+    <t>RCR30383</t>
   </si>
   <si>
-    <t>RCR30394_f</t>
+    <t>RCR30392</t>
   </si>
   <si>
-    <t>RCR30400_f</t>
+    <t>RCR30394</t>
   </si>
   <si>
-    <t>RCR30410_f</t>
+    <t>RCR30400</t>
   </si>
   <si>
-    <t>RCR30418_f</t>
+    <t>RCR30410</t>
   </si>
   <si>
-    <t>RCR30432_f</t>
+    <t>RCR30418</t>
   </si>
   <si>
-    <t>RCR30434_f</t>
+    <t>RCR30432</t>
   </si>
   <si>
-    <t>RCR30439_f</t>
+    <t>RCR30434</t>
   </si>
   <si>
-    <t>RCR30452_f</t>
+    <t>RCR30439</t>
   </si>
   <si>
-    <t>RCR30456_f</t>
+    <t>RCR30452</t>
   </si>
   <si>
-    <t>RCR30458_f</t>
+    <t>RCR30456</t>
   </si>
   <si>
-    <t>RCR30461_f</t>
+    <t>RCR30458</t>
   </si>
   <si>
-    <t>RCR30462_f</t>
+    <t>RCR30461</t>
   </si>
   <si>
-    <t>RCR30463_f</t>
+    <t>RCR30462</t>
   </si>
   <si>
-    <t>RCR30464_f</t>
+    <t>RCR30463</t>
   </si>
   <si>
-    <t>RCR30478_f</t>
+    <t>RCR30464</t>
   </si>
   <si>
-    <t>RCR30482_f</t>
+    <t>RCR30478</t>
   </si>
   <si>
-    <t>RCR30484_f</t>
+    <t>RCR30482</t>
   </si>
   <si>
-    <t>RCR30487_f</t>
+    <t>RCR30484</t>
   </si>
   <si>
-    <t>RCR30490_f</t>
+    <t>RCR30487</t>
   </si>
   <si>
-    <t>RCR30492_f</t>
+    <t>RCR30490</t>
   </si>
   <si>
-    <t>RCR30495_f</t>
+    <t>RCR30492</t>
   </si>
   <si>
-    <t>RCR30544_f</t>
+    <t>RCR30495</t>
   </si>
   <si>
-    <t>RCR30546_f</t>
+    <t>RCR30544</t>
   </si>
   <si>
-    <t>RCR30554_f</t>
+    <t>RCR30546</t>
   </si>
   <si>
-    <t>RCR30560_f</t>
+    <t>RCR30554</t>
   </si>
   <si>
-    <t>RCR90064_f</t>
+    <t>RCR30560</t>
   </si>
   <si>
-    <t>RCR90068_f</t>
+    <t>RCR90064</t>
   </si>
   <si>
-    <t>RCR90077_f</t>
+    <t>RCR90068</t>
   </si>
   <si>
-    <t>RCR90085_f</t>
+    <t>RCR90077</t>
   </si>
   <si>
-    <t>RCR90086_f</t>
+    <t>RCR90085</t>
   </si>
   <si>
-    <t>RCR90087_f</t>
+    <t>RCR90086</t>
   </si>
   <si>
-    <t>RCR90091_f</t>
+    <t>RCR90087</t>
   </si>
   <si>
-    <t>RCR90093_f</t>
+    <t>RCR90091</t>
   </si>
   <si>
-    <t>RCR90119_f</t>
+    <t>RCR90093</t>
   </si>
   <si>
-    <t>RCR90123_f</t>
+    <t>RCR90119</t>
   </si>
   <si>
-    <t>RCR90201_f</t>
+    <t>RCR90123</t>
   </si>
   <si>
-    <t>RCR90202_f</t>
+    <t>RCR90201</t>
   </si>
   <si>
-    <t>RCR90203_f</t>
+    <t>RCR90202</t>
   </si>
   <si>
-    <t>RCR90206_f</t>
+    <t>RCR90203</t>
   </si>
   <si>
-    <t>RCR90210_f</t>
+    <t>RCR90206</t>
   </si>
   <si>
-    <t xml:space="preserve">rno </t>
+    <t>RCR90210</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3667.6180832007899</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>67707.6160175556</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>5184.3016082130598</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>9388.4198801423499</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>18217.9454164327</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>6388.3541185714303</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2995.3</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1869.7373421422801</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>4771.3638883960502</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>139452.53895310601</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>21298.323859293399</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>7317.9178000000002</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>10822.357315327101</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>7164.8992064079503</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>4283.6358227565097</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>37095.113493776204</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>18062.194430303</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>27757.907889999999</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>68948.270006000006</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21">
         <v>2769.9666666666699</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>23566.8819967241</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23">
         <v>129.2544</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24">
         <v>27391.270311</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25">
         <v>10102.0421572125</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G26">
         <v>3177.3743675000001</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27">
         <v>4766.8364427630304</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G28">
         <v>12761.2642613889</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>6381.6666666666697</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G30">
         <v>5198.4112889908301</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G31">
         <v>57390.754548333301</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G32">
         <v>10919.7365169313</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G33">
         <v>200352.111028235</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34">
         <v>44552.25237794</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G35">
         <v>4585.5294004162997</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G36">
         <v>8975.2100300000002</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G37">
         <v>7353.7299197969496</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G38">
         <v>16215.0794873333</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39">
         <v>61921.386458005902</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G40">
         <v>30785.0788293939</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G41">
         <v>283615.08168982097</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G42">
         <v>15219.0894510539</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G43">
         <v>59776.389221805599</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44">
         <v>2413</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45">
         <v>9211.9346708372195</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G46">
         <v>5673.4981162121203</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G47">
         <v>143347.413485333</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>30986.963488141701</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G49">
         <v>87859.377919166596</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G50">
         <v>16364.0103857959</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G51">
         <v>284056.65312228998</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52">
         <v>4348.8866682365397</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G53">
         <v>11275.7419327724</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G54">
         <v>301870.05447260401</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G55">
         <v>6174.5894329468301</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G56">
         <v>18624.887882167201</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G57">
         <v>67915.914083714306</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G58">
         <v>68406.731805999996</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G59">
         <v>12473.036793307499</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G60">
         <v>15715.248798266701</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G61">
         <v>9033.6679090909092</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G62">
         <v>5387.0973994407404</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G63">
         <v>5695.9388368931604</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G64">
         <v>13237.2926089909</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G65">
         <v>3095.3741699990401</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G66">
         <v>4839.0557897354302</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G67">
         <v>284056.65312228998</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G68">
         <v>4238.5689000019702</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G69">
         <v>9606.4322222222199</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G70">
         <v>203478.65808705901</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G71">
         <v>65760.203807849495</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G72">
         <v>23236.767931999999</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G73">
         <v>84.501900000000006</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G74">
         <v>37095.113493776204</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G75">
         <v>49691.768486606699</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G76">
         <v>43241.113493776204</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G77">
         <v>8936.2546073333306</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G78">
         <v>40091.052271412002</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G79">
         <v>49554.768486606699</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G80">
         <v>66076.296875083295</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G81">
         <v>27102.8611473333</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G82">
         <v>44539.557263170202</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G83">
         <v>68593.037509978196</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G84">
         <v>47662.088032400898</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G85">
         <v>3590.5998028289901</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G86">
         <v>43.856030769442</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G87">
         <v>48935.440762999999</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G88">
         <v>11063.7340731818</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G89">
         <v>200459.62867529399</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G90">
         <v>3801.2103314824599</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G91">
         <v>2715.7913003756398</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G92">
         <v>1390.93496400049</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G93">
         <v>301404.40719695901</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G94">
         <v>20039.113467225601</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G95">
         <v>31041.126124499599</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G96">
         <v>137140.508610522</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G97">
         <v>9725.6183333333302</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G98">
         <v>426341.31333999999</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G99">
         <v>10350.107309999999</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G100">
         <v>59057.463817096701</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G101">
         <v>17140.204584529401</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G102">
         <v>170.37721753926701</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G103">
         <v>4345.1571428571397</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G104">
         <v>32167.648263515101</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G105">
         <v>32567.648263515101</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G106">
         <v>49914.379692571398</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G107">
         <v>79002.347545638593</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G108">
         <v>62979.580732068098</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G109">
         <v>75042.630396796507</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G110">
         <v>85016.755105292206</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G111">
         <v>65992.202104696902</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G112">
         <v>14882.6135762222</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G113">
         <v>243.79607316600899</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G114">
         <v>21769.438909377299</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G115">
         <v>5319.2665763899404</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G116">
         <v>3032.18664479984</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G117">
         <v>2173.2482256004701</v>
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G118">
         <v>2044.3979622044001</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>33</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>3329.6556818357299</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>33</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>53627.163102074097</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>33</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>4694.8687312359498</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>33</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>8103.6586411764702</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="123" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>33</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>15365.2349478216</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="124" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>33</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>5391.3583027018703</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>33</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>2683.7</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>33</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>1740.7213087494599</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="127" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>33</v>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G127">
         <v>4290.4978013929704</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="128" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>33</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G128">
         <v>121191.310346667</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>33</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G129">
         <v>17978.890360495701</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>33</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G130">
         <v>6569.8293949999997</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="131" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>33</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G131">
         <v>9419.2733374153504</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="132" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>33</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G132">
         <v>6368.6731770882498</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>33</v>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G133">
         <v>3995.39222580461</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="134" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>33</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>34375.314619154196</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>33</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G135">
         <v>16890.1858545455</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>33</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G136">
         <v>25299.3645192943</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="137" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>33</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G137">
         <v>55946.253822799998</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="138" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>33</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G138">
         <v>2620.1</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="139" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>33</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G139">
         <v>20147.620052606599</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>33</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G140">
         <v>118.81305</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>33</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G141">
         <v>23892.904903999999</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="142" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>33</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G142">
         <v>9083.7498934587293</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="143" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>33</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G143">
         <v>2967.5692209408599</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="144" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>33</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G144">
         <v>4996.8534267288296</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="145" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>33</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G145">
         <v>11174.4997133333</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="146" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>33</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G146">
         <v>6331.4129032258097</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="147" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>33</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G147">
         <v>4897.9166468421099</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="148" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>33</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G148">
         <v>51051.4536684872</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="149" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>33</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G149">
         <v>10281.5316234373</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>33</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G150">
         <v>183233.66181127701</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="151" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>33</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G151">
         <v>40108.481751826701</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="152" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>33</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G152">
         <v>4446.4986947397601</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="153" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>33</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G153">
         <v>7874.5421100000003</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="154" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>33</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G154">
         <v>6444.6175000000003</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="155" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>33</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G155">
         <v>15091.7607932759</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="156" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>33</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G156">
         <v>55984.534063270403</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="157" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>33</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G157">
         <v>26716.068955757601</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="158" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>33</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G158">
         <v>256281.24146220501</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="159" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>33</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G159">
         <v>12833.9746151949</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="160" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>33</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G160">
         <v>50866.205446599997</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="161" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>33</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G161">
         <v>2256</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="162" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>33</v>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G162">
         <v>8299.9345206040107</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="163" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>33</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G163">
         <v>5007.9175528571404</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>33</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G164">
         <v>128551.635462127</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="165" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>33</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G165">
         <v>27218.148431377998</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="166" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>33</v>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G166">
         <v>76213.588525600499</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="167" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>33</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G167">
         <v>14638.8844966127</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="168" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>33</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G168">
         <v>245812.542100255</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="169" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>33</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G169">
         <v>3947.8912924167898</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="170" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>33</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G170">
         <v>9922.3362288614298</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>33</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G171">
         <v>261146.066242803</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>33</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G172">
         <v>5461.88792772549</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="173" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>33</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G173">
         <v>15832.400707376</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>33</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G174">
         <v>53944.377637999998</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>33</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G175">
         <v>54833.297637999902</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>33</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G176">
         <v>10611.774779077799</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>33</v>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G177">
         <v>13483.3048014329</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>33</v>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G178">
         <v>8030.9527208712097</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>33</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G179">
         <v>4902.1338347676801</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>33</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G180">
         <v>5147.3219588888896</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="181" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>33</v>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G181">
         <v>11483.8057567506</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>33</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G182">
         <v>2440.74597678496</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="183" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>33</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G183">
         <v>4631.3420988482203</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="184" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>33</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G184">
         <v>245812.542100255</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="185" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>33</v>
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G185">
         <v>4034.6498700018801</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="186" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>33</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G186">
         <v>8459.8273333333309</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="187" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>33</v>
@@ -8990,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G187">
         <v>186738.89585383001</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>33</v>
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G188">
         <v>56693.188670000003</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="189" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>33</v>
@@ -9074,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G189">
         <v>20523.676490000002</v>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="190" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>33</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G190">
         <v>81.259573170731699</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="191" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>33</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G191">
         <v>34375.314619154196</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="192" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>33</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G192">
         <v>44248.020508309499</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="193" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>33</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G193">
         <v>40303.514619154201</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="194" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>33</v>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G194">
         <v>8724.6304392592592</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="195" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>33</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G195">
         <v>37347.547140509101</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="196" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>33</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G196">
         <v>44122.720508309503</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="197" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>33</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G197">
         <v>57354.147291666501</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="198" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>33</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G198">
         <v>23596.765800000001</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="199" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>33</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G199">
         <v>40951.3767125128</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="200" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>33</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G200">
         <v>59493.838021923999</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="201" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>33</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G201">
         <v>43746.188286371696</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="202" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G202">
         <v>3285.7283704453798</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="203" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>33</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G203">
         <v>44.376923077136901</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="204" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>33</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G204">
         <v>43544.397466707298</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="205" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>33</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G205">
         <v>9728.8305166666705</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="206" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>33</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G206">
         <v>182986.63896846201</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="207" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>33</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G207">
         <v>3363.70689173356</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="208" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>33</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G208">
         <v>2442.5434727991801</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="209" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>33</v>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G209">
         <v>1316.9872617195799</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>33</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G210">
         <v>260361.138477878</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="211" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>33</v>
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G211">
         <v>18606.903830951302</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="212" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>33</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G212">
         <v>26853.097048826101</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="213" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>33</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G213">
         <v>122201.604397872</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="214" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>33</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G214">
         <v>8685.9372666666695</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="215" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>33</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G215">
         <v>371220.60687100003</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="216" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>33</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G216">
         <v>9485.3859664122101</v>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="217" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>33</v>
@@ -10250,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G217">
         <v>51118.308625833401</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="218" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>33</v>
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G218">
         <v>16030.157351333301</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="219" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>33</v>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G219">
         <v>151.57490416666701</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="220" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>33</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G220">
         <v>4159.22307692308</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="221" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>33</v>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G221">
         <v>29342.921810727301</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="222" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>33</v>
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G222">
         <v>29742.921810727301</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="223" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>33</v>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G223">
         <v>45120.8991754167</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="224" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>33</v>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G224">
         <v>68546.195499464302</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="225" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>33</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G225">
         <v>54421.942544375001</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>33</v>
@@ -10628,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G226">
         <v>64626.587475081004</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="227" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>33</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G227">
         <v>74144.891993181707</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="228" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>33</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G228">
         <v>57958.4469922727</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>33</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G229">
         <v>13771.8921381034</v>
@@ -10781,7 +10781,7 @@
     </row>
     <row r="230" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>33</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G230">
         <v>202.06758789196101</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="231" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>33</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G231">
         <v>19298.890640919501</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="232" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>33</v>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G232">
         <v>4735.6027582963497</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>33</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G233">
         <v>2630.42686811063</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="234" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>33</v>
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G234">
         <v>1984.73707560039</v>
@@ -10991,22 +10991,22 @@
     </row>
     <row r="235" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F235" t="s">
         <v>151</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F235" t="s">
-        <v>150</v>
       </c>
       <c r="G235">
         <v>1706.0157425943501</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="236" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>4</v>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G236">
         <v>4127.5600660311002</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>4</v>
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G237">
         <v>63813.041169999902</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>4</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G238">
         <v>4955.0810540038301</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>4</v>
@@ -11174,7 +11174,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G239">
         <v>8763.3196077602497</v>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
@@ -11216,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G240">
         <v>16912.407393806399</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>4</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G241">
         <v>5794.2616268333304</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>4</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G242">
         <v>3465.35</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="243" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>4</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G243">
         <v>1851.27398965005</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="244" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>4</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G244">
         <v>4657.9083919848699</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="245" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>4</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G245">
         <v>138010.482368333</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="246" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>4</v>
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G246">
         <v>20348.309121488201</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="247" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
@@ -11510,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G247">
         <v>7100.4939624999997</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="248" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G248">
         <v>10810.046783740299</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="249" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>4</v>
@@ -11594,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G249">
         <v>7495.4791145398603</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="250" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>4</v>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G250">
         <v>4581.8868782029203</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>4</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G251">
         <v>40622.994687223101</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="252" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>4</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G252">
         <v>20854.112252941199</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="253" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>4</v>
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G253">
         <v>29288.967674186399</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="254" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>4</v>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G254">
         <v>67337.738712001898</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>4</v>
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G255">
         <v>3226.2833333333301</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="256" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>4</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G256">
         <v>22648.5034552424</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="257" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G257">
         <v>164.25412499999999</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>4</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G258">
         <v>29025.672813333302</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="259" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>4</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G259">
         <v>10680.740392318399</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="260" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>4</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G260">
         <v>3262.8845476923102</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="261" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>4</v>
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G261">
         <v>6259.9764459161097</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="262" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>4</v>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G262">
         <v>12433.554464135001</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="263" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>4</v>
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="F263" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G263">
         <v>9259.6770365749308</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="264" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>4</v>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G264">
         <v>4954.6052983333302</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="265" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>4</v>
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G265">
         <v>61296.537572969297</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="266" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>4</v>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="F266" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G266">
         <v>11635.9551257205</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="267" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>4</v>
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G267">
         <v>218469.759106471</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>4</v>
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G268">
         <v>47230.696685000003</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>4</v>
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G269">
         <v>4826.3265405007396</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>4</v>
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G270">
         <v>9001.2618175000007</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>4</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G271">
         <v>6976.2021564285697</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="272" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>4</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G272">
         <v>17236.139064120402</v>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>4</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G273">
         <v>65849.5512250381</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="274" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>4</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G274">
         <v>31942.970565</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="275" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>4</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G275">
         <v>304882.23244687199</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="276" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>4</v>
@@ -12728,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G276">
         <v>14578.192516847001</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="277" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>4</v>
@@ -12770,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G277">
         <v>59381.847125</v>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="278" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>4</v>
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G278">
         <v>2681.6</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="279" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>4</v>
@@ -12854,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G279">
         <v>9485.06855889293</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="280" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>4</v>
@@ -12896,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G280">
         <v>5369.7908814285702</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="281" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>4</v>
@@ -12938,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G281">
         <v>157024.30811417499</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="282" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>4</v>
@@ -12980,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G282">
         <v>30342.246391627901</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="283" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>4</v>
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="F283" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G283">
         <v>90157.685789460898</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="284" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>4</v>
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="F284" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G284">
         <v>16282.1986069457</v>
@@ -13091,7 +13091,7 @@
     </row>
     <row r="285" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>4</v>
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="F285" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G285">
         <v>291312.91983277298</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="286" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>4</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G286">
         <v>4682.1368847633603</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="287" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>4</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="F287" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G287">
         <v>11236.681034887801</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="288" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>4</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G288">
         <v>306312.03936908598</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="289" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>4</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G289">
         <v>5835.2879923558003</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="290" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>4</v>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G290">
         <v>17921.253615093399</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="291" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>4</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G291">
         <v>64192.019464777797</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="292" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>4</v>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G292">
         <v>65176.216024000001</v>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="293" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>4</v>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G293">
         <v>11971.618085903099</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="294" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>4</v>
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="F294" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G294">
         <v>16096.0859733333</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="295" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>4</v>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G295">
         <v>8469.9007322821999</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="296" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>4</v>
@@ -13568,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="F296" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G296">
         <v>5274.4389516071597</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="297" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>4</v>
@@ -13610,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G297">
         <v>6145.7812962518101</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="298" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>4</v>
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="F298" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G298">
         <v>13848.837678895899</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="299" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>4</v>
@@ -13694,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="F299" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G299">
         <v>3245.2640069989902</v>
@@ -13721,7 +13721,7 @@
     </row>
     <row r="300" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>4</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G300">
         <v>4909.9036662184599</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="301" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>4</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="F301" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G301">
         <v>291312.91983277199</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>4</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="F302" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G302">
         <v>4075.7445900019002</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="303" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>4</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="F303" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G303">
         <v>10630.3788333333</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="304" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>4</v>
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="F304" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G304">
         <v>220830.80616529399</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="305" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>4</v>
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="F305" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G305">
         <v>65705.160616333305</v>
@@ -13973,7 +13973,7 @@
     </row>
     <row r="306" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>4</v>
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="F306" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G306">
         <v>22901.972971250001</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="307" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>4</v>
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="F307" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G307">
         <v>89.255040000000506</v>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="308" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>4</v>
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="F308" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G308">
         <v>40622.994687223101</v>
@@ -14099,7 +14099,7 @@
     </row>
     <row r="309" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>4</v>
@@ -14114,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="F309" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G309">
         <v>51969.901160080597</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="310" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>4</v>
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G310">
         <v>47060.688438454599</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="311" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>4</v>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G311">
         <v>9904.8702179629599</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="312" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>4</v>
@@ -14240,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="F312" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G312">
         <v>45523.900366275098</v>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="313" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>4</v>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="F313" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G313">
         <v>51798.301160080598</v>
@@ -14309,7 +14309,7 @@
     </row>
     <row r="314" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>4</v>
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="F314" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G314">
         <v>67069.988803333297</v>
@@ -14351,7 +14351,7 @@
     </row>
     <row r="315" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>4</v>
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G315">
         <v>28261.8672421138</v>
@@ -14393,7 +14393,7 @@
     </row>
     <row r="316" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>4</v>
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G316">
         <v>48242.5023084063</v>
@@ -14435,7 +14435,7 @@
     </row>
     <row r="317" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>4</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="F317" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G317">
         <v>70242.4076092381</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="318" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>4</v>
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="F318" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G318">
         <v>51414.506472081797</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="319" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>4</v>
@@ -14534,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="F319" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G319">
         <v>3716.8945021398899</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="320" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>4</v>
@@ -14576,7 +14576,7 @@
         <v>0</v>
       </c>
       <c r="F320" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G320">
         <v>52.139630769481997</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="321" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>4</v>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="F321" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G321">
         <v>51351.419992119598</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="322" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>4</v>
@@ -14660,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="F322" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G322">
         <v>10884.571942538099</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="323" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>4</v>
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="F323" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G323">
         <v>217013.51019500001</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="324" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>4</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="F324" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G324">
         <v>3842.5451931655498</v>
@@ -14771,7 +14771,7 @@
     </row>
     <row r="325" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>4</v>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="F325" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G325">
         <v>2727.6486387313898</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="326" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>4</v>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="F326" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G326">
         <v>1494.82187994941</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="327" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>4</v>
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="F327" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G327">
         <v>306025.04567060398</v>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="328" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>4</v>
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="F328" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G328">
         <v>21356.2977239664</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="329" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>4</v>
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G329">
         <v>32597.838169707898</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="330" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>4</v>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G330">
         <v>148244.930216565</v>
@@ -15023,7 +15023,7 @@
     </row>
     <row r="331" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>4</v>
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="F331" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G331">
         <v>10631.531499999999</v>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="332" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>4</v>
@@ -15080,7 +15080,7 @@
         <v>0</v>
       </c>
       <c r="F332" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G332">
         <v>422442.49058152502</v>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="333" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>4</v>
@@ -15122,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="F333" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G333">
         <v>11237.728375185199</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="334" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>4</v>
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="F334" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G334">
         <v>58244.262792537898</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="335" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>4</v>
@@ -15206,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="F335" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G335">
         <v>16859.414096071399</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="336" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>4</v>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G336">
         <v>170.08822441860499</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="337" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>4</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="F337" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G337">
         <v>4927.7076923076902</v>
@@ -15317,7 +15317,7 @@
     </row>
     <row r="338" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>4</v>
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="F338" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G338">
         <v>34296.3230275104</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="339" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>4</v>
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="F339" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G339">
         <v>34696.3230275104</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="340" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>4</v>
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="F340" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G340">
         <v>53586.304881922202</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="341" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>4</v>
@@ -15458,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="F341" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G341">
         <v>81831.665926822097</v>
@@ -15485,7 +15485,7 @@
     </row>
     <row r="342" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>4</v>
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="F342" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G342">
         <v>64962.984330979198</v>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="343" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>4</v>
@@ -15542,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="F343" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G343">
         <v>78798.415014652695</v>
@@ -15569,7 +15569,7 @@
     </row>
     <row r="344" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>4</v>
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="F344" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G344">
         <v>88063.408991228804</v>
@@ -15611,7 +15611,7 @@
     </row>
     <row r="345" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>4</v>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
       <c r="F345" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G345">
         <v>71728.994618175202</v>
@@ -15653,7 +15653,7 @@
     </row>
     <row r="346" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>4</v>
@@ -15668,7 +15668,7 @@
         <v>0</v>
       </c>
       <c r="F346" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G346">
         <v>15894.673205324099</v>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="347" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>4</v>
@@ -15710,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="F347" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G347">
         <v>235.37988824217899</v>
@@ -15737,7 +15737,7 @@
     </row>
     <row r="348" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>4</v>
@@ -15752,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="F348" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G348">
         <v>24117.419628717998</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="349" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>4</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="F349" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G349">
         <v>5557.11158497428</v>
@@ -15821,7 +15821,7 @@
     </row>
     <row r="350" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>4</v>
@@ -15836,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="F350" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G350">
         <v>3256.1145848569699</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="351" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>4</v>
@@ -15878,7 +15878,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G351">
         <v>2394.0170386671298</v>
@@ -15905,22 +15905,22 @@
     </row>
     <row r="352" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F352" t="s">
         <v>151</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F352" t="s">
-        <v>150</v>
       </c>
       <c r="G352">
         <v>2008.9482308571</v>
@@ -15947,7 +15947,7 @@
     </row>
     <row r="353" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1</v>
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="F353" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G353">
         <v>3375.4450346669901</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="354" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1</v>
@@ -16004,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="F354" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G354">
         <v>54607.122892074098</v>
@@ -16031,7 +16031,7 @@
     </row>
     <row r="355" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1</v>
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="F355" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G355">
         <v>4562.9626868627402</v>
@@ -16073,7 +16073,7 @@
     </row>
     <row r="356" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>1</v>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="F356" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G356">
         <v>8096.1046577500001</v>
@@ -16115,7 +16115,7 @@
     </row>
     <row r="357" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>1</v>
@@ -16130,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="F357" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G357">
         <v>15483.9037939728</v>
@@ -16157,7 +16157,7 @@
     </row>
     <row r="358" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>1</v>
@@ -16172,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="F358" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G358">
         <v>5384.9114797826096</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="359" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="F359" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G359">
         <v>2846.05</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="360" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>1</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="F360" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G360">
         <v>1716.4806380351799</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="361" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1</v>
@@ -16298,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="F361" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G361">
         <v>4369.2561511610502</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="362" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>1</v>
@@ -16340,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="F362" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G362">
         <v>123094.306887484</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="363" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1</v>
@@ -16382,7 +16382,7 @@
         <v>0</v>
       </c>
       <c r="F363" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G363">
         <v>17788.043218681101</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="364" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1</v>
@@ -16424,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="F364" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G364">
         <v>6487.5106500000002</v>
@@ -16451,7 +16451,7 @@
     </row>
     <row r="365" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>1</v>
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="F365" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G365">
         <v>9464.2550332570299</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="366" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>1</v>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="F366" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G366">
         <v>6368.30581292837</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="367" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>1</v>
@@ -16550,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="F367" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G367">
         <v>3817.3802362563001</v>
@@ -16577,7 +16577,7 @@
     </row>
     <row r="368" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>1</v>
@@ -16592,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="F368" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G368">
         <v>32932.162003636397</v>
@@ -16619,7 +16619,7 @@
     </row>
     <row r="369" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>1</v>
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="F369" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G369">
         <v>17214.530619607802</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="370" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1</v>
@@ -16676,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="F370" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G370">
         <v>23941.458463447601</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="371" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>1</v>
@@ -16718,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="F371" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G371">
         <v>57437.111365999997</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="372" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>1</v>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="F372" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G372">
         <v>2674.4666666666699</v>
@@ -16787,7 +16787,7 @@
     </row>
     <row r="373" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>1</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="F373" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G373">
         <v>20334.846706943001</v>
@@ -16829,7 +16829,7 @@
     </row>
     <row r="374" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>1</v>
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="F374" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G374">
         <v>125.1135</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="375" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>1</v>
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="F375" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G375">
         <v>24346.0561186667</v>
@@ -16913,7 +16913,7 @@
     </row>
     <row r="376" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>1</v>
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="F376" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G376">
         <v>9207.3061311859692</v>
@@ -16955,7 +16955,7 @@
     </row>
     <row r="377" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1</v>
@@ -16970,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="F377" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G377">
         <v>2866.55647</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="378" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>1</v>
@@ -17012,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="F378" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G378">
         <v>4447.95230406674</v>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="379" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>1</v>
@@ -17054,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="F379" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G379">
         <v>11287.345732</v>
@@ -17081,7 +17081,7 @@
     </row>
     <row r="380" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>1</v>
@@ -17096,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="F380" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G380">
         <v>6063.5277777777801</v>
@@ -17123,7 +17123,7 @@
     </row>
     <row r="381" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="F381" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G381">
         <v>4760.2128636363605</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="382" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1</v>
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="F382" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G382">
         <v>50032.548144905297</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="383" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>1</v>
@@ -17222,7 +17222,7 @@
         <v>0</v>
       </c>
       <c r="F383" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G383">
         <v>9817.6476147119192</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="384" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>1</v>
@@ -17264,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="F384" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G384">
         <v>178808.43235241401</v>
@@ -17291,7 +17291,7 @@
     </row>
     <row r="385" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>1</v>
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="F385" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G385">
         <v>39131.6589717733</v>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="386" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="F386" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G386">
         <v>4204.69189559815</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="387" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>1</v>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="F387" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G387">
         <v>7974.52880102564</v>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="388" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>1</v>
@@ -17432,7 +17432,7 @@
         <v>0</v>
       </c>
       <c r="F388" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G388">
         <v>6348.8477422222204</v>
@@ -17459,7 +17459,7 @@
     </row>
     <row r="389" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>1</v>
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="F389" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G389">
         <v>15081.6954244444</v>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="390" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="F390" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G390">
         <v>55040.461018436501</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="391" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>1</v>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="F391" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G391">
         <v>27298.216680666701</v>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="392" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1</v>
@@ -17600,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="F392" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G392">
         <v>250897.07057541501</v>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="393" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1</v>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="F393" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G393">
         <v>12651.433452376399</v>
@@ -17669,7 +17669,7 @@
     </row>
     <row r="394" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="F394" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G394">
         <v>51975.858798924797</v>
@@ -17711,7 +17711,7 @@
     </row>
     <row r="395" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>1</v>
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="F395" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G395">
         <v>2268.8000000000002</v>
@@ -17753,7 +17753,7 @@
     </row>
     <row r="396" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1</v>
@@ -17768,7 +17768,7 @@
         <v>0</v>
       </c>
       <c r="F396" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G396">
         <v>8293.2040387961606</v>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="397" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1</v>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="F397" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G397">
         <v>4922.6959912626298</v>
@@ -17837,7 +17837,7 @@
     </row>
     <row r="398" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>1</v>
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="F398" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G398">
         <v>128902.01312623901</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="399" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1</v>
@@ -17894,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="F399" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G399">
         <v>27484.582883648902</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="400" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>1</v>
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="F400" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G400">
         <v>77551.325964231597</v>
@@ -17963,7 +17963,7 @@
     </row>
     <row r="401" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1</v>
@@ -17978,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="F401" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G401">
         <v>14489.385460572699</v>
@@ -18005,7 +18005,7 @@
     </row>
     <row r="402" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1</v>
@@ -18020,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="F402" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G402">
         <v>246022.35719306101</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="403" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>1</v>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="F403" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G403">
         <v>4003.0796102416198</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="404" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="F404" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G404">
         <v>10063.9232654965</v>
@@ -18131,7 +18131,7 @@
     </row>
     <row r="405" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1</v>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="F405" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G405">
         <v>262427.78334233799</v>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="406" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1</v>
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="F406" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G406">
         <v>5405.95030398977</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="407" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>1</v>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="F407" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G407">
         <v>15634.930028590101</v>
@@ -18257,7 +18257,7 @@
     </row>
     <row r="408" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>1</v>
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="F408" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G408">
         <v>54967.083955142902</v>
@@ -18299,7 +18299,7 @@
     </row>
     <row r="409" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1</v>
@@ -18314,7 +18314,7 @@
         <v>0</v>
       </c>
       <c r="F409" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G409">
         <v>56191.704729999998</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="410" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="F410" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G410">
         <v>10504.896966046301</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="411" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>1</v>
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="F411" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G411">
         <v>13936.047101587301</v>
@@ -18425,7 +18425,7 @@
     </row>
     <row r="412" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>1</v>
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="F412" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G412">
         <v>7983.3577424431796</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="413" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1</v>
@@ -18482,7 +18482,7 @@
         <v>0</v>
       </c>
       <c r="F413" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G413">
         <v>4825.7209000079301</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="414" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>1</v>
@@ -18524,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="F414" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G414">
         <v>5072.9745658853499</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="415" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>1</v>
@@ -18566,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="F415" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G415">
         <v>11585.475086781</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="416" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>1</v>
@@ -18608,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="F416" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G416">
         <v>2454.2894571421002</v>
@@ -18635,7 +18635,7 @@
     </row>
     <row r="417" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>1</v>
@@ -18650,7 +18650,7 @@
         <v>0</v>
       </c>
       <c r="F417" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G417">
         <v>4450.8032403327998</v>
@@ -18677,7 +18677,7 @@
     </row>
     <row r="418" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>1</v>
@@ -18692,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="F418" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G418">
         <v>246022.35719306101</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="419" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>1</v>
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="F419" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G419">
         <v>4005.92412000186</v>
@@ -18761,7 +18761,7 @@
     </row>
     <row r="420" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>1</v>
@@ -18776,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="F420" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G420">
         <v>8791.0413333333308</v>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="421" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>1</v>
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="F421" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G421">
         <v>183534.315111034</v>
@@ -18845,7 +18845,7 @@
     </row>
     <row r="422" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="F422" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G422">
         <v>57675.240919000003</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="423" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>1</v>
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="F423" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G423">
         <v>20711.00866</v>
@@ -18929,7 +18929,7 @@
     </row>
     <row r="424" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>1</v>
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="F424" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G424">
         <v>80.973878048780506</v>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="425" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>1</v>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="F425" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G425">
         <v>32932.162003636397</v>
@@ -19013,7 +19013,7 @@
     </row>
     <row r="426" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>1</v>
@@ -19028,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="F426" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G426">
         <v>43431.795751744903</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="427" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>1</v>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
       <c r="F427" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G427">
         <v>38911.362003636401</v>
@@ -19097,7 +19097,7 @@
     </row>
     <row r="428" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1</v>
@@ -19112,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="F428" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G428">
         <v>8384.5820083333292</v>
@@ -19139,7 +19139,7 @@
     </row>
     <row r="429" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>1</v>
@@ -19154,7 +19154,7 @@
         <v>0</v>
       </c>
       <c r="F429" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G429">
         <v>35712.712176569301</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="430" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="F430" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G430">
         <v>43281.095751744899</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="431" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1</v>
@@ -19238,7 +19238,7 @@
         <v>0</v>
       </c>
       <c r="F431" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G431">
         <v>58220.710923999999</v>
@@ -19265,7 +19265,7 @@
     </row>
     <row r="432" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>1</v>
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="F432" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G432">
         <v>23925.5330417886</v>
@@ -19307,7 +19307,7 @@
     </row>
     <row r="433" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1</v>
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="F433" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G433">
         <v>39702.352605113403</v>
@@ -19349,7 +19349,7 @@
     </row>
     <row r="434" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>1</v>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
       <c r="F434" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G434">
         <v>60121.012320176997</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="435" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1</v>
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="F435" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G435">
         <v>42523.261574845797</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="436" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1</v>
@@ -19448,7 +19448,7 @@
         <v>0</v>
       </c>
       <c r="F436" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G436">
         <v>3237.1194260233701</v>
@@ -19475,7 +19475,7 @@
     </row>
     <row r="437" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>1</v>
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="F437" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G437">
         <v>44.372769230983003</v>
@@ -19517,7 +19517,7 @@
     </row>
     <row r="438" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>1</v>
@@ -19532,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="F438" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G438">
         <v>42703.0337073185</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="439" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>1</v>
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="F439" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G439">
         <v>9567.0729653216404</v>
@@ -19601,7 +19601,7 @@
     </row>
     <row r="440" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>1</v>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="F440" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G440">
         <v>180139.83580068999</v>
@@ -19643,7 +19643,7 @@
     </row>
     <row r="441" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>1</v>
@@ -19658,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="F441" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G441">
         <v>3328.67819169624</v>
@@ -19685,7 +19685,7 @@
     </row>
     <row r="442" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>1</v>
@@ -19700,7 +19700,7 @@
         <v>0</v>
       </c>
       <c r="F442" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G442">
         <v>2406.04750899593</v>
@@ -19727,7 +19727,7 @@
     </row>
     <row r="443" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>1</v>
@@ -19742,7 +19742,7 @@
         <v>0</v>
       </c>
       <c r="F443" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G443">
         <v>1312.4804475068099</v>
@@ -19769,7 +19769,7 @@
     </row>
     <row r="444" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>1</v>
@@ -19784,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="F444" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G444">
         <v>261683.03469516599</v>
@@ -19811,7 +19811,7 @@
     </row>
     <row r="445" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>1</v>
@@ -19826,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="F445" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G445">
         <v>18256.964487258199</v>
@@ -19853,7 +19853,7 @@
     </row>
     <row r="446" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>1</v>
@@ -19868,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="F446" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G446">
         <v>27178.521566065101</v>
@@ -19895,7 +19895,7 @@
     </row>
     <row r="447" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>1</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="F447" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G447">
         <v>121916.01415767999</v>
@@ -19937,7 +19937,7 @@
     </row>
     <row r="448" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>1</v>
@@ -19952,7 +19952,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G448">
         <v>8949.0825999999997</v>
@@ -19979,7 +19979,7 @@
     </row>
     <row r="449" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1</v>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="F449" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G449">
         <v>375294.86264645198</v>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="450" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>1</v>
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G450">
         <v>9512.2249520000005</v>
@@ -20063,7 +20063,7 @@
     </row>
     <row r="451" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>1</v>
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G451">
         <v>51793.8820826667</v>
@@ -20105,7 +20105,7 @@
     </row>
     <row r="452" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>1</v>
@@ -20120,7 +20120,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G452">
         <v>16043.076697222201</v>
@@ -20147,7 +20147,7 @@
     </row>
     <row r="453" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>1</v>
@@ -20162,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="F453" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G453">
         <v>153.814151351351</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="454" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>1</v>
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="F454" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G454">
         <v>4082.13846153846</v>
@@ -20231,7 +20231,7 @@
     </row>
     <row r="455" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1</v>
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="F455" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G455">
         <v>28177.036785575499</v>
@@ -20273,7 +20273,7 @@
     </row>
     <row r="456" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>1</v>
@@ -20288,7 +20288,7 @@
         <v>0</v>
       </c>
       <c r="F456" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G456">
         <v>28577.036785575499</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="457" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>1</v>
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="F457" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G457">
         <v>44278.394458865099</v>
@@ -20357,7 +20357,7 @@
     </row>
     <row r="458" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>1</v>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="F458" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G458">
         <v>68070.330440705104</v>
@@ -20399,7 +20399,7 @@
     </row>
     <row r="459" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>1</v>
@@ -20414,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="F459" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G459">
         <v>54145.984655</v>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="460" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>1</v>
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
       <c r="F460" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G460">
         <v>64612.111089134603</v>
@@ -20483,7 +20483,7 @@
     </row>
     <row r="461" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>1</v>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="F461" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G461">
         <v>73563.993303124997</v>
@@ -20525,7 +20525,7 @@
     </row>
     <row r="462" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>1</v>
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="F462" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G462">
         <v>57757.926718600902</v>
@@ -20567,7 +20567,7 @@
     </row>
     <row r="463" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>1</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="F463" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G463">
         <v>13760.591188333299</v>
@@ -20609,7 +20609,7 @@
     </row>
     <row r="464" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1</v>
@@ -20624,7 +20624,7 @@
         <v>0</v>
       </c>
       <c r="F464" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G464">
         <v>198.283968912695</v>
@@ -20651,7 +20651,7 @@
     </row>
     <row r="465" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>1</v>
@@ -20666,7 +20666,7 @@
         <v>0</v>
       </c>
       <c r="F465" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G465">
         <v>19296.101060459801</v>
@@ -20693,7 +20693,7 @@
     </row>
     <row r="466" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>1</v>
@@ -20708,7 +20708,7 @@
         <v>0</v>
       </c>
       <c r="F466" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G466">
         <v>4773.1905394259102</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="467" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>1</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="F467" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G467">
         <v>2659.85300892843</v>
@@ -20777,7 +20777,7 @@
     </row>
     <row r="468" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>1</v>
@@ -20792,7 +20792,7 @@
         <v>0</v>
       </c>
       <c r="F468" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G468">
         <v>1989.29552880039</v>
@@ -20819,22 +20819,22 @@
     </row>
     <row r="469" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F469" t="s">
         <v>151</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F469" t="s">
-        <v>150</v>
       </c>
       <c r="G469">
         <v>1667.6716022903599</v>
